--- a/Algoritmo_Rota/Planilhas_de_Rota/BFS/PLN_BFS_81_15.xlsx
+++ b/Algoritmo_Rota/Planilhas_de_Rota/BFS/PLN_BFS_81_15.xlsx
@@ -466,7 +466,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>4900</v>
+        <v>5013</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -475,16 +475,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23 -&gt; 20 -&gt; 67 -&gt; 16 -&gt; 8 -&gt; 34 -&gt; 26 -&gt; 2 -&gt; 1 -&gt; 79 -&gt; 74 -&gt; 70 -&gt; 21 -&gt; 65 -&gt; 49 -&gt; 46 -&gt; 23</t>
+          <t>23 -&gt; 21 -&gt; 67 -&gt; 65 -&gt; 49 -&gt; 46 -&gt; 20 -&gt; 16 -&gt; 74 -&gt; 70 -&gt; 79 -&gt; 2 -&gt; 1 -&gt; 8 -&gt; 34 -&gt; 26 -&gt; 23</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>23 -&gt; 19 -&gt; 20 -&gt; 19 -&gt; 18 -&gt; 21 -&gt; 67 -&gt; 21 -&gt; 18 -&gt; 19 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 9 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 27 -&gt; 26 -&gt; 25 -&gt; 3 -&gt; 2 -&gt; 1 -&gt; 2 -&gt; 80 -&gt; 79 -&gt; 78 -&gt; 77 -&gt; 76 -&gt; 74 -&gt; 72 -&gt; 70 -&gt; 68 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 66 -&gt; 65 -&gt; 64 -&gt; 61 -&gt; 60 -&gt; 57 -&gt; 55 -&gt; 53 -&gt; 49 -&gt; 45 -&gt; 46 -&gt; 44 -&gt; 41 -&gt; 32 -&gt; 24 -&gt; 23</t>
+          <t>23 -&gt; 22 -&gt; 21 -&gt; 67 -&gt; 66 -&gt; 65 -&gt; 64 -&gt; 61 -&gt; 60 -&gt; 57 -&gt; 55 -&gt; 53 -&gt; 49 -&gt; 45 -&gt; 46 -&gt; 44 -&gt; 41 -&gt; 38 -&gt; 31 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 4 -&gt; 74 -&gt; 72 -&gt; 70 -&gt; 72 -&gt; 74 -&gt; 76 -&gt; 77 -&gt; 78 -&gt; 79 -&gt; 80 -&gt; 2 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 9 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 27 -&gt; 26 -&gt; 27 -&gt; 6 -&gt; 9 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 23</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.1169760227203369</v>
+        <v>0.06624698638916016</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>5538</v>
+        <v>5439</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.1037507057189941</v>
+        <v>0.06573152542114258</v>
       </c>
     </row>
     <row r="4">
@@ -524,7 +524,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>5292</v>
+        <v>4982</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -533,16 +533,16 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11 -&gt; 11 -&gt; 17 -&gt; 20 -&gt; 31 -&gt; 34 -&gt; 9 -&gt; 29 -&gt; 40 -&gt; 47 -&gt; 63 -&gt; 64 -&gt; 1 -&gt; 5 -&gt; 76 -&gt; 21 -&gt; 11</t>
+          <t>11 -&gt; 11 -&gt; 31 -&gt; 40 -&gt; 47 -&gt; 29 -&gt; 34 -&gt; 9 -&gt; 5 -&gt; 1 -&gt; 76 -&gt; 17 -&gt; 20 -&gt; 21 -&gt; 64 -&gt; 63 -&gt; 11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11 -&gt; 12 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 31 -&gt; 30 -&gt; 29 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 9 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 38 -&gt; 39 -&gt; 40 -&gt; 42 -&gt; 48 -&gt; 47 -&gt; 50 -&gt; 49 -&gt; 51 -&gt; 54 -&gt; 56 -&gt; 59 -&gt; 63 -&gt; 62 -&gt; 61 -&gt; 64 -&gt; 65 -&gt; 66 -&gt; 67 -&gt; 68 -&gt; 70 -&gt; 72 -&gt; 74 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 4 -&gt; 74 -&gt; 76 -&gt; 74 -&gt; 72 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 11</t>
+          <t>11 -&gt; 12 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 31 -&gt; 38 -&gt; 39 -&gt; 40 -&gt; 42 -&gt; 48 -&gt; 47 -&gt; 46 -&gt; 44 -&gt; 41 -&gt; 38 -&gt; 31 -&gt; 30 -&gt; 29 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 9 -&gt; 6 -&gt; 5 -&gt; 2 -&gt; 1 -&gt; 77 -&gt; 76 -&gt; 74 -&gt; 4 -&gt; 5 -&gt; 6 -&gt; 9 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 19 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 66 -&gt; 65 -&gt; 64 -&gt; 61 -&gt; 62 -&gt; 63 -&gt; 62 -&gt; 61 -&gt; 64 -&gt; 65 -&gt; 66 -&gt; 22 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 10 -&gt; 11</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.09653186798095703</v>
+        <v>0.0626227855682373</v>
       </c>
     </row>
   </sheetData>
